--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H2">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I2">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J2">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N2">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O2">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P2">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q2">
-        <v>50.81183724496201</v>
+        <v>85.51093597053779</v>
       </c>
       <c r="R2">
-        <v>457.3065352046581</v>
+        <v>769.59842373484</v>
       </c>
       <c r="S2">
-        <v>0.002727590181812978</v>
+        <v>0.003768785524709331</v>
       </c>
       <c r="T2">
-        <v>0.002832348151206668</v>
+        <v>0.003916437656432154</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H3">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I3">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J3">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P3">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q3">
-        <v>32.85296622374267</v>
+        <v>39.27271264280268</v>
       </c>
       <c r="R3">
-        <v>295.6766960136841</v>
+        <v>353.4544137852241</v>
       </c>
       <c r="S3">
-        <v>0.001763554182922183</v>
+        <v>0.001730894759183315</v>
       </c>
       <c r="T3">
-        <v>0.00183128662907576</v>
+        <v>0.001798707135161115</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H4">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I4">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J4">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N4">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O4">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P4">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q4">
-        <v>1.932606618682778</v>
+        <v>3.178524768818445</v>
       </c>
       <c r="R4">
-        <v>17.393459568145</v>
+        <v>28.606722919366</v>
       </c>
       <c r="S4">
-        <v>0.0001037427324859933</v>
+        <v>0.0001400894283601383</v>
       </c>
       <c r="T4">
-        <v>0.0001077271572969675</v>
+        <v>0.0001455778018941567</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H5">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I5">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J5">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N5">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O5">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P5">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q5">
-        <v>8.064069353961667</v>
+        <v>5.307695039570334</v>
       </c>
       <c r="R5">
-        <v>48.38441612377001</v>
+        <v>31.846170237422</v>
       </c>
       <c r="S5">
-        <v>0.0004328809503440189</v>
+        <v>0.0002339298945528592</v>
       </c>
       <c r="T5">
-        <v>0.0002996710105925863</v>
+        <v>0.0001620631442118976</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H6">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I6">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J6">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N6">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O6">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P6">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q6">
-        <v>3.798708451792444</v>
+        <v>1.808092257632445</v>
       </c>
       <c r="R6">
-        <v>34.188376066132</v>
+        <v>16.272830318692</v>
       </c>
       <c r="S6">
-        <v>0.0002039154740012156</v>
+        <v>7.968936195777343E-05</v>
       </c>
       <c r="T6">
-        <v>0.0002117472117478739</v>
+        <v>8.281140328688417E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5894.824219</v>
       </c>
       <c r="I7">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J7">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N7">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O7">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P7">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q7">
-        <v>9368.986031061402</v>
+        <v>13189.64299079375</v>
       </c>
       <c r="R7">
-        <v>84320.87427955262</v>
+        <v>118706.7869171437</v>
       </c>
       <c r="S7">
-        <v>0.5029291538636458</v>
+        <v>0.5813167054669387</v>
       </c>
       <c r="T7">
-        <v>0.5222450456933423</v>
+        <v>0.6040913234985397</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5894.824219</v>
       </c>
       <c r="I8">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J8">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P8">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q8">
         <v>6057.62354439753</v>
@@ -948,10 +948,10 @@
         <v>54518.61189957777</v>
       </c>
       <c r="S8">
-        <v>0.325174514457378</v>
+        <v>0.2669820376674362</v>
       </c>
       <c r="T8">
-        <v>0.3376634220873693</v>
+        <v>0.2774417644772658</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5894.824219</v>
       </c>
       <c r="I9">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J9">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N9">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O9">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P9">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q9">
-        <v>356.3453989408939</v>
+        <v>490.2718753137612</v>
       </c>
       <c r="R9">
-        <v>3207.108590468045</v>
+        <v>4412.446877823851</v>
       </c>
       <c r="S9">
-        <v>0.0191286964649518</v>
+        <v>0.02160810808445863</v>
       </c>
       <c r="T9">
-        <v>0.01986336819539652</v>
+        <v>0.02245466281681198</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5894.824219</v>
       </c>
       <c r="I10">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J10">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N10">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O10">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P10">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q10">
-        <v>1486.900636293528</v>
+        <v>818.6859596538612</v>
       </c>
       <c r="R10">
-        <v>8921.403817761171</v>
+        <v>4912.115757923168</v>
       </c>
       <c r="S10">
-        <v>0.07981714098101847</v>
+        <v>0.03608254030910516</v>
       </c>
       <c r="T10">
-        <v>0.05525510716372235</v>
+        <v>0.02499744611445876</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>5894.824219</v>
       </c>
       <c r="I11">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J11">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N11">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O11">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P11">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q11">
-        <v>700.4282535453302</v>
+        <v>278.8893736446403</v>
       </c>
       <c r="R11">
-        <v>6303.854281907972</v>
+        <v>2510.004362801762</v>
       </c>
       <c r="S11">
-        <v>0.03759913695354675</v>
+        <v>0.01229169371680498</v>
       </c>
       <c r="T11">
-        <v>0.03904319891874664</v>
+        <v>0.01277325329823281</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H12">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I12">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J12">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N12">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O12">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P12">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q12">
-        <v>5.563140803352</v>
+        <v>7.329138204282224</v>
       </c>
       <c r="R12">
-        <v>50.068267230168</v>
+        <v>65.96224383854</v>
       </c>
       <c r="S12">
-        <v>0.0002986305762201223</v>
+        <v>0.00032302242583814</v>
       </c>
       <c r="T12">
-        <v>0.0003101000165239783</v>
+        <v>0.0003356776829379606</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H13">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I13">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J13">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P13">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q13">
-        <v>3.596911405296</v>
+        <v>3.366062309449334</v>
       </c>
       <c r="R13">
-        <v>32.372202647664</v>
+        <v>30.29456078504401</v>
       </c>
       <c r="S13">
-        <v>0.0001930829658183486</v>
+        <v>0.0001483549064589023</v>
       </c>
       <c r="T13">
-        <v>0.0002004986617533577</v>
+        <v>0.0001541671019384756</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H14">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I14">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J14">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N14">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O14">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P14">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q14">
-        <v>0.21159169438</v>
+        <v>0.2724312048745556</v>
       </c>
       <c r="R14">
-        <v>1.90432524942</v>
+        <v>2.451880843871</v>
       </c>
       <c r="S14">
-        <v>1.13582869550989E-05</v>
+        <v>1.200705815878453E-05</v>
       </c>
       <c r="T14">
-        <v>1.179452223895525E-05</v>
+        <v>1.247746639009432E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H15">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I15">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J15">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N15">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O15">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P15">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q15">
-        <v>0.8828957128199999</v>
+        <v>0.4549222862511668</v>
       </c>
       <c r="R15">
-        <v>5.29737427692</v>
+        <v>2.729533717507001</v>
       </c>
       <c r="S15">
-        <v>4.739402880165238E-05</v>
+        <v>2.005011999730413E-05</v>
       </c>
       <c r="T15">
-        <v>3.280952071408598E-05</v>
+        <v>1.389042428630136E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H16">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I16">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J16">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N16">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O16">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P16">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q16">
-        <v>0.4159021034079999</v>
+        <v>0.1549715003335556</v>
       </c>
       <c r="R16">
-        <v>3.743118930672</v>
+        <v>1.394743503002</v>
       </c>
       <c r="S16">
-        <v>2.232571297081968E-05</v>
+        <v>6.830171375984279E-06</v>
       </c>
       <c r="T16">
-        <v>2.318317182650996E-05</v>
+        <v>7.097761387961431E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H17">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I17">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J17">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N17">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O17">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P17">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q17">
-        <v>281.8217317792231</v>
+        <v>1074.20824606753</v>
       </c>
       <c r="R17">
-        <v>1690.930390675338</v>
+        <v>6445.249476405179</v>
       </c>
       <c r="S17">
-        <v>0.01512825023265135</v>
+        <v>0.04734435943605594</v>
       </c>
       <c r="T17">
-        <v>0.01047285179011297</v>
+        <v>0.03279946654775111</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H18">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I18">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J18">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P18">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q18">
-        <v>182.215017942054</v>
+        <v>493.3529412059581</v>
       </c>
       <c r="R18">
-        <v>1093.290107652324</v>
+        <v>2960.117647235748</v>
       </c>
       <c r="S18">
-        <v>0.009781340743920857</v>
+        <v>0.02174390213703674</v>
       </c>
       <c r="T18">
-        <v>0.006771340395902693</v>
+        <v>0.01506385130681838</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H19">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I19">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J19">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N19">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O19">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P19">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q19">
-        <v>10.7189697058075</v>
+        <v>39.92936667388449</v>
       </c>
       <c r="R19">
-        <v>64.313818234845</v>
+        <v>239.576200043307</v>
       </c>
       <c r="S19">
-        <v>0.0005753965633590651</v>
+        <v>0.001759835948739887</v>
       </c>
       <c r="T19">
-        <v>0.0003983304635980838</v>
+        <v>0.001219188114862629</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H20">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I20">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J20">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N20">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O20">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P20">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q20">
-        <v>44.7263888444925</v>
+        <v>66.67649832627976</v>
       </c>
       <c r="R20">
-        <v>178.90555537797</v>
+        <v>266.705993305119</v>
       </c>
       <c r="S20">
-        <v>0.002400922023190238</v>
+        <v>0.002938681688818951</v>
       </c>
       <c r="T20">
-        <v>0.001108059430615008</v>
+        <v>0.001357249915231373</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H21">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I21">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J21">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N21">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O21">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P21">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q21">
-        <v>21.069078633142</v>
+        <v>22.713675049339</v>
       </c>
       <c r="R21">
-        <v>126.414471798852</v>
+        <v>136.282050296034</v>
       </c>
       <c r="S21">
-        <v>0.001130992602029986</v>
+        <v>0.00100107628068057</v>
       </c>
       <c r="T21">
-        <v>0.0007829535944090721</v>
+        <v>0.0006935307261739727</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H22">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I22">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J22">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N22">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O22">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P22">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q22">
-        <v>5.147340910182</v>
+        <v>6.713536052082221</v>
       </c>
       <c r="R22">
-        <v>46.326068191638</v>
+        <v>60.42182446873999</v>
       </c>
       <c r="S22">
-        <v>0.0002763103499165197</v>
+        <v>0.0002958905455253033</v>
       </c>
       <c r="T22">
-        <v>0.0002869225420899329</v>
+        <v>0.0003074828395194832</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H23">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I23">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J23">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O23">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P23">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q23">
-        <v>3.328071296636</v>
+        <v>3.083333952529333</v>
       </c>
       <c r="R23">
-        <v>29.952641669724</v>
+        <v>27.750005572764</v>
       </c>
       <c r="S23">
-        <v>0.0001786515718633651</v>
+        <v>0.0001358940144467732</v>
       </c>
       <c r="T23">
-        <v>0.000185513004355015</v>
+        <v>0.0001412180215546029</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H24">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I24">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J24">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N24">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O24">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P24">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q24">
-        <v>0.1957769222883333</v>
+        <v>0.2495486733445555</v>
       </c>
       <c r="R24">
-        <v>1.761992300595</v>
+        <v>2.245938060101</v>
       </c>
       <c r="S24">
-        <v>1.050934664072133E-05</v>
+        <v>1.099853974391556E-05</v>
       </c>
       <c r="T24">
-        <v>1.091297685653497E-05</v>
+        <v>1.142943660137273E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H25">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I25">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J25">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N25">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O25">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P25">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q25">
-        <v>0.8169063812449999</v>
+        <v>0.4167116357361667</v>
       </c>
       <c r="R25">
-        <v>4.90143828747</v>
+        <v>2.500269814417</v>
       </c>
       <c r="S25">
-        <v>4.38517075106383E-05</v>
+        <v>1.836603427287378E-05</v>
       </c>
       <c r="T25">
-        <v>3.035727373884208E-05</v>
+        <v>1.272371479778029E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H26">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I26">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J26">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N26">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O26">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P26">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q26">
-        <v>0.3848167765613333</v>
+        <v>0.1419548554735555</v>
       </c>
       <c r="R26">
-        <v>3.463350989052</v>
+        <v>1.277593699262</v>
       </c>
       <c r="S26">
-        <v>2.065704604392515E-05</v>
+        <v>6.256479342657074E-06</v>
       </c>
       <c r="T26">
-        <v>2.145041676789337E-05</v>
+        <v>6.501593453281442E-06</v>
       </c>
     </row>
   </sheetData>
